--- a/Test-计算机网络.xlsx
+++ b/Test-计算机网络.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\PyCharm\workspace\exam-online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E9EA72-FF3F-4155-B7AC-D573366E92C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE2E74-045F-4227-8A27-CD0ACC9DB191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
   </bookViews>
   <sheets>
     <sheet name="单项选择题" sheetId="1" r:id="rId1"/>
     <sheet name="多项选择题" sheetId="2" r:id="rId2"/>
     <sheet name="判断题" sheetId="3" r:id="rId3"/>
+    <sheet name="主观题" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,13 +270,36 @@
   </si>
   <si>
     <t>判断题5</t>
+  </si>
+  <si>
+    <t>我是多项选择题4</t>
+  </si>
+  <si>
+    <t>BCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是拥塞算法标准答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请简述拥塞控制算法的主要过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请简述TCP和UDP协议的主要过程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是TCP/UDP的标准答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,21 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="仿宋"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -321,27 +332,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -350,21 +346,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,276 +683,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="3">
-        <v>6</v>
+      <c r="G2" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <v>6</v>
+      <c r="G3" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
-        <v>6</v>
+      <c r="G4" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
-        <v>6</v>
+      <c r="G5" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
-        <v>6</v>
+      <c r="G6" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>6</v>
+      <c r="G7" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>6</v>
+      <c r="G8" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>6</v>
+      <c r="G9" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
-        <v>6</v>
+      <c r="G10" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33980D2-EB03-4EE7-AA6F-517DCD352F29}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1017,7 @@
         <v>57</v>
       </c>
       <c r="G2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1037,7 +1040,7 @@
         <v>69</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,7 +1063,30 @@
         <v>57</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5797D0A-D906-47EF-90CB-0041906F9717}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1154,4 +1180,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9D7B73-3861-478F-88DE-2140CA1E4403}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test-计算机网络.xlsx
+++ b/Test-计算机网络.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files\PyCharm\workspace\exam-online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE2E74-045F-4227-8A27-CD0ACC9DB191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8A8607-CE7D-4CCD-A381-745895C6C001}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7C737266-6D0A-418A-B993-2ECB4FBF5666}"/>
   </bookViews>
   <sheets>
     <sheet name="单项选择题" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,6 +292,10 @@
   </si>
   <si>
     <t>我是TCP/UDP的标准答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A2D115-BB32-49B2-A3DD-40659F06ED1A}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -682,7 +686,7 @@
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -704,8 +708,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -727,8 +734,11 @@
       <c r="G2" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -750,8 +760,11 @@
       <c r="G3" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -773,8 +786,11 @@
       <c r="G4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -796,8 +812,11 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -819,8 +838,11 @@
       <c r="G6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -842,8 +864,11 @@
       <c r="G7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -865,8 +890,11 @@
       <c r="G8" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -888,8 +916,11 @@
       <c r="G9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -911,8 +942,11 @@
       <c r="G10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -934,8 +968,11 @@
       <c r="G11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -944,7 +981,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -962,10 +999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33980D2-EB03-4EE7-AA6F-517DCD352F29}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G2:G5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -974,7 +1011,7 @@
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1033,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -1019,8 +1059,11 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -1042,8 +1085,11 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
@@ -1065,8 +1111,11 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -1087,6 +1136,9 @@
       </c>
       <c r="G5" s="1">
         <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1098,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5797D0A-D906-47EF-90CB-0041906F9717}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1162,7 @@
     <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1120,8 +1172,11 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -1131,8 +1186,11 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -1142,8 +1200,11 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1153,8 +1214,11 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
@@ -1164,8 +1228,11 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -1174,6 +1241,9 @@
       </c>
       <c r="C6" s="1">
         <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1184,15 +1254,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9D7B73-3861-478F-88DE-2140CA1E4403}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1202,8 +1272,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1213,8 +1286,11 @@
       <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1224,6 +1300,12 @@
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
